--- a/docs/LTA1_C/LTA1_C_08.11.2024_output.xlsx
+++ b/docs/LTA1_C/LTA1_C_08.11.2024_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:N34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,139 +505,157 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731790861.1135426</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>./test_images/LKOH1731790861.1135426.png</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
+          <t>./test_images/LKOH1731790861.1135426.png</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>7123</v>
       </c>
-      <c r="J3" t="n">
-        <v>7123</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>7075.5</v>
+      </c>
+      <c r="M3" t="n">
+        <v>-47.5</v>
+      </c>
+      <c r="N3" t="n">
+        <v>-0.67</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731790874.8762765</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731790875.7452395</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731790874.8762765.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731790875.7452395.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>474.95</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>474</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>0.9499999999999886</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -635,51 +663,57 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731790877.101116</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731790877.9201927</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731790877.101116.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731790877.9201927.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>473</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>474.15</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>1.149999999999977</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>0.24</v>
       </c>
     </row>
@@ -687,51 +721,57 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731790878.2823148</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731790879.0006473</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731790878.2823148.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731790879.0006473.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>475.05</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>473.9</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>1.150000000000034</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>0.24</v>
       </c>
     </row>
@@ -739,51 +779,57 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731790879.3727064</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731790879.9313786</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731790879.3727064.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731790879.9313786.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>475.05</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>473.7</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>1.350000000000023</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>0.28</v>
       </c>
     </row>
@@ -791,51 +837,57 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731790880.1518922</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731790881.6033757</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731790880.1518922.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731790881.6033757.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>475</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>474.65</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>0.3500000000000227</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -843,51 +895,57 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731790882.3334846</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731790884.9390852</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731790882.3334846.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731790884.9390852.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>933</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>929</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>4</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>0.43</v>
       </c>
     </row>
@@ -895,51 +953,57 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731790885.870424</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731790886.6374488</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731790885.870424.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731790886.6374488.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>926.8</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>932.6</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>5.800000000000068</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>0.63</v>
       </c>
     </row>
@@ -947,51 +1011,57 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731790888.923628</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731790892.468451</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731790888.923628.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731790892.468451.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>932.8</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>930.2</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>2.599999999999909</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>0.28</v>
       </c>
     </row>
@@ -999,51 +1069,57 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731790893.502323</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731790900.3902047</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731790893.502323.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731790900.3902047.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>129.68</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>129.9</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>0.2199999999999989</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -1051,51 +1127,57 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731790900.5806623</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731790901.3113682</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731790900.5806623.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731790901.3113682.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>130.2</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>129.74</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>0.4599999999999795</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N13" t="n">
         <v>0.35</v>
       </c>
     </row>
@@ -1103,51 +1185,57 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731790902.399092</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731790904.51299</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731790902.399092.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731790904.51299.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>130.2</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>129.78</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>0.4199999999999875</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14" t="n">
         <v>0.32</v>
       </c>
     </row>
@@ -1155,51 +1243,57 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731790904.8019247</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731790905.8413827</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731790904.8019247.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731790905.8413827.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>37.725</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>37.955</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>0.2299999999999969</v>
       </c>
-      <c r="L15" t="n">
+      <c r="N15" t="n">
         <v>0.61</v>
       </c>
     </row>
@@ -1207,51 +1301,57 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731790907.692294</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731790910.2476873</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731790907.692294.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731790910.2476873.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>37.725</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>37.955</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>0.2299999999999969</v>
       </c>
-      <c r="L16" t="n">
+      <c r="N16" t="n">
         <v>0.61</v>
       </c>
     </row>
@@ -1259,51 +1359,57 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731790912.2635005</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731790916.5841234</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731790912.2635005.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731790916.5841234.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>37.985</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>37.91</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>0.07500000000000284</v>
       </c>
-      <c r="L17" t="n">
+      <c r="N17" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -1311,51 +1417,57 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731790918.0591457</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731790919.386498</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731790918.0591457.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731790919.386498.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>1185.4</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>1181.2</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>4.200000000000045</v>
       </c>
-      <c r="L18" t="n">
+      <c r="N18" t="n">
         <v>0.35</v>
       </c>
     </row>
@@ -1363,95 +1475,107 @@
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731790924.1322863</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>./test_images/CHMF1731790924.1322863.png</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
+          <t>./test_images/CHMF1731790924.1322863.png</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>1189.2</v>
       </c>
-      <c r="J19" t="n">
-        <v>1189.2</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>1190.8</v>
+      </c>
+      <c r="M19" t="n">
+        <v>-1.599999999999909</v>
+      </c>
+      <c r="N19" t="n">
+        <v>-0.13</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731790931.096662</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731790934.9806976</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731790931.096662.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731790934.9806976.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>78.73999999999999</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>78.56999999999999</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>-0.1700000000000017</v>
       </c>
-      <c r="L20" t="n">
+      <c r="N20" t="n">
         <v>-0.22</v>
       </c>
     </row>
@@ -1459,95 +1583,107 @@
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731790937.7390757</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>./test_images/VTBR1731790937.7390757.png</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
+          <t>./test_images/VTBR1731790937.7390757.png</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>78.8</v>
       </c>
-      <c r="J21" t="n">
-        <v>78.8</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>78.62</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.1799999999999926</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.23</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731790939.6569939</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731790946.2379096</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731790939.6569939.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731790946.2379096.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>103.21</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>102.84</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>-0.3699999999999903</v>
       </c>
-      <c r="L22" t="n">
+      <c r="N22" t="n">
         <v>-0.36</v>
       </c>
     </row>
@@ -1555,51 +1691,57 @@
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731790948.5152123</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731790950.812462</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731790948.5152123.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731790950.812462.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>103.22</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>102.69</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>0.5300000000000011</v>
       </c>
-      <c r="L23" t="n">
+      <c r="N23" t="n">
         <v>0.51</v>
       </c>
     </row>
@@ -1607,51 +1749,57 @@
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731790952.6517363</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731790958.2346132</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/MXI1731790952.6517363.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/MXI1731790958.2346132.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>2751.65</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>2748.45</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>-3.200000000000273</v>
       </c>
-      <c r="L24" t="n">
+      <c r="N24" t="n">
         <v>-0.12</v>
       </c>
     </row>
@@ -1659,51 +1807,57 @@
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731790958.3596933</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731790959.0372233</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/MXI1731790958.3596933.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/MXI1731790959.0372233.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>2756.7</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>2746.85</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>9.849999999999909</v>
       </c>
-      <c r="L25" t="n">
+      <c r="N25" t="n">
         <v>0.36</v>
       </c>
     </row>
@@ -1711,51 +1865,57 @@
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731790960.2405646</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731790961.8358853</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/MXI1731790960.2405646.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/MXI1731790961.8358853.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>2754.05</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>2746.15</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>7.900000000000091</v>
       </c>
-      <c r="L26" t="n">
+      <c r="N26" t="n">
         <v>0.29</v>
       </c>
     </row>
@@ -1763,95 +1923,107 @@
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731790962.3121052</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>./test_images/MXI1731790962.3121052.png</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
+          <t>./test_images/MXI1731790962.3121052.png</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>2740.35</v>
       </c>
-      <c r="J27" t="n">
-        <v>2740.35</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>2744.45</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4.099999999999909</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>APTK</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731790965.0483272</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731790969.052488</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/APTK1731790965.0483272.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/APTK1731790969.052488.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>10.884</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>10.836</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>0.04800000000000004</v>
       </c>
-      <c r="L28" t="n">
+      <c r="N28" t="n">
         <v>0.44</v>
       </c>
     </row>
@@ -1859,51 +2031,57 @@
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>APTK</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731790969.162127</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731790969.7543852</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/APTK1731790969.162127.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/APTK1731790969.7543852.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>10.824</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>10.868</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>0.04400000000000048</v>
       </c>
-      <c r="L29" t="n">
+      <c r="N29" t="n">
         <v>0.41</v>
       </c>
     </row>
@@ -1911,51 +2089,57 @@
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>PIKK</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731790975.0288036</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731790981.6637537</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/PIKK1731790975.0288036.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/PIKK1731790981.6637537.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>480.3</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>482.6</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>2.300000000000011</v>
       </c>
-      <c r="L30" t="n">
+      <c r="N30" t="n">
         <v>0.48</v>
       </c>
     </row>
@@ -1963,51 +2147,57 @@
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>PIKK</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731790981.881717</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731790984.2075794</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/PIKK1731790981.881717.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/PIKK1731790984.2075794.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>485</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>483.3</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>1.699999999999989</v>
       </c>
-      <c r="L31" t="n">
+      <c r="N31" t="n">
         <v>0.35</v>
       </c>
     </row>
@@ -2015,51 +2205,57 @@
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731790985.8945155</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731790990.4601018</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/TATN1731790985.8945155.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/TATN1731790990.4601018.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>574.7</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>577.5</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>2.799999999999955</v>
       </c>
-      <c r="L32" t="n">
+      <c r="N32" t="n">
         <v>0.49</v>
       </c>
     </row>
@@ -2067,51 +2263,57 @@
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731790991.3868275</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731790996.4746919</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/TATN1731790991.3868275.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/TATN1731790996.4746919.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>578.3</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>578.5</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>-0.2000000000000455</v>
       </c>
-      <c r="L33" t="n">
+      <c r="N33" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -2119,44 +2321,50 @@
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731790996.6595595</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>./test_images/TATN1731790996.6595595.png</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
         <is>
+          <t>./test_images/TATN1731790996.6595595.png</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>575.6</v>
       </c>
-      <c r="J34" t="n">
-        <v>575.6</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>575.7</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.1000000000000227</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.02</v>
       </c>
     </row>
   </sheetData>
@@ -2239,19 +2447,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14.54999999999973</v>
+        <v>18.64999999999964</v>
       </c>
       <c r="C3" t="n">
         <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>3.637499999999932</v>
+        <v>4.662499999999909</v>
       </c>
       <c r="E3" t="n">
-        <v>0.53</v>
+        <v>0.6799999999999999</v>
       </c>
       <c r="F3" t="n">
-        <v>0.13</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="4">
@@ -2327,19 +2535,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.599999999999909</v>
+        <v>2.699999999999932</v>
       </c>
       <c r="C7" t="n">
         <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8666666666666364</v>
+        <v>0.8999999999999773</v>
       </c>
       <c r="E7" t="n">
-        <v>0.46</v>
+        <v>0.48</v>
       </c>
       <c r="F7" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="8">
@@ -2371,19 +2579,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4.200000000000045</v>
+        <v>2.600000000000136</v>
       </c>
       <c r="C9" t="n">
         <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>2.100000000000023</v>
+        <v>1.300000000000068</v>
       </c>
       <c r="E9" t="n">
-        <v>0.35</v>
+        <v>0.22</v>
       </c>
       <c r="F9" t="n">
-        <v>0.18</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="10">
@@ -2437,19 +2645,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.1700000000000017</v>
+        <v>0.009999999999990905</v>
       </c>
       <c r="C12" t="n">
         <v>2</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.08500000000000085</v>
+        <v>0.004999999999995453</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.22</v>
+        <v>0.009999999999999981</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -2459,19 +2667,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>-47.5</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>-47.5</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>-0.67</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>-0.67</v>
       </c>
     </row>
     <row r="14">
